--- a/data/trans_bre/P16A13-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A13-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.8586983497177441</v>
+        <v>-0.7892162218665526</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.9975889899686369</v>
+        <v>-1.081351115310476</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3285104484442826</v>
+        <v>0.6007049994464394</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.723422851029339</v>
+        <v>2.631625388434649</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1591283460129253</v>
+        <v>-0.1431200782038735</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1343209291418536</v>
+        <v>-0.1286819335269804</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06077903517422002</v>
+        <v>0.08037528502699756</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1872606568266374</v>
+        <v>0.1886571540257453</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.607225621075224</v>
+        <v>2.633648934954565</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.483262039611195</v>
+        <v>3.701456297846216</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.876239364022578</v>
+        <v>5.221228442978153</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.700445063743262</v>
+        <v>8.952049445533099</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6934767397760858</v>
+        <v>0.7617694486751698</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6096016182802368</v>
+        <v>0.6546202443428107</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.339722555892667</v>
+        <v>1.46898136081013</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8481502175928414</v>
+        <v>0.8870822776607415</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.3144165391685643</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.128733069706133</v>
+        <v>1.128733069706134</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8899230254799453</v>
@@ -749,7 +749,7 @@
         <v>0.1336889840141573</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2350041611142856</v>
+        <v>0.2350041611142858</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.208832262506644</v>
+        <v>0.2087317742347198</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.7422092588643309</v>
+        <v>-0.8604358661926638</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.7383725711242766</v>
+        <v>-0.6506570703583728</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.1003240219253805</v>
+        <v>-0.1856205937443368</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0802848286322705</v>
+        <v>0.1156265300864226</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2253278167550329</v>
+        <v>-0.2624861564752849</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2674350056873394</v>
+        <v>-0.2345894518761033</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.01751501878454525</v>
+        <v>-0.03538842398114444</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.127891155196387</v>
+        <v>2.213542543656722</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.591778460224355</v>
+        <v>1.440497679164936</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.320502615527042</v>
+        <v>1.344587379620222</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.289698606853408</v>
+        <v>2.293449798262133</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.146722550159238</v>
+        <v>2.219552047951252</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6806146216196888</v>
+        <v>0.6109973885837137</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6848650902318009</v>
+        <v>0.7245055802899056</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5516512250703011</v>
+        <v>0.5480915308471601</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.5326325880647644</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.078505267934626</v>
+        <v>-1.078505267934625</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.497705921270279</v>
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.330838757774879</v>
+        <v>-3.488238255546533</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.559042117961561</v>
+        <v>-1.633177805249685</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.64761847988615</v>
+        <v>-1.626490254197257</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.295126653220747</v>
+        <v>-3.240273931238878</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.827232699837087</v>
+        <v>-0.8171387038520109</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3275644683247125</v>
+        <v>-0.3028965544093365</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4724967442115644</v>
+        <v>-0.4587950686643483</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4530401831782293</v>
+        <v>-0.4574993125406099</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2827842041981686</v>
+        <v>0.1136074226124656</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.759178236447654</v>
+        <v>4.683253681615067</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.780495524258379</v>
+        <v>2.881303526613922</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8844164690520339</v>
+        <v>0.975012689887866</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.260204631057478</v>
+        <v>0.137244088257897</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.914786745373759</v>
+        <v>1.976329338627617</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.797626251222814</v>
+        <v>1.749620400081271</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1934595650015109</v>
+        <v>0.2191826311323403</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1322466058451585</v>
+        <v>0.04619597924819895</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1970819971444808</v>
+        <v>0.1333518053674923</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2511108392424265</v>
+        <v>0.1619963985130748</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.159528079753403</v>
+        <v>1.090096147645444</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.04071753886556172</v>
+        <v>0.01798437706846875</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04187207094780098</v>
+        <v>0.02534368120600284</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05846541082213356</v>
+        <v>0.05106291913137608</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1752877823393587</v>
+        <v>0.1584571520913996</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.794480038594323</v>
+        <v>1.784333636567706</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.314013832853303</v>
+        <v>2.340083106349763</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.038824669257409</v>
+        <v>2.026654860851711</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.122489886871136</v>
+        <v>3.115480654047903</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8420494628715224</v>
+        <v>0.7807632170993936</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6393326282822159</v>
+        <v>0.6465026273258747</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7952383520036853</v>
+        <v>0.8172965800381683</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5574075532405999</v>
+        <v>0.5456467345336017</v>
       </c>
     </row>
     <row r="16">
